--- a/forecast_summary_B0BVWQ3BMJ.xlsx
+++ b/forecast_summary_B0BVWQ3BMJ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>12.04441445522659</v>
       </c>
       <c r="D2" t="n">
-        <v>31.71215338500406</v>
+        <v>30.87729272881008</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>8.323807656109198</v>
       </c>
       <c r="D3" t="n">
-        <v>26.79203986602768</v>
+        <v>28.36951363419116</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>4.793336637828545</v>
       </c>
       <c r="D4" t="n">
-        <v>25.71786652431261</v>
+        <v>23.58734373493077</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>2.621080602775027</v>
       </c>
       <c r="D5" t="n">
-        <v>21.99265168807601</v>
+        <v>22.79409938873092</v>
       </c>
       <c r="E5" t="n">
         <v>12</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>1.46363443500949</v>
       </c>
       <c r="D6" t="n">
-        <v>19.80026059551682</v>
+        <v>21.88799918643739</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>0.4183339940271038</v>
       </c>
       <c r="D7" t="n">
-        <v>18.79663799945358</v>
+        <v>19.56599295703008</v>
       </c>
       <c r="E7" t="n">
         <v>12</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>-0.7951358920198922</v>
       </c>
       <c r="D8" t="n">
-        <v>21.04294998727309</v>
+        <v>18.35474693391416</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-1.773097401431428</v>
       </c>
       <c r="D9" t="n">
-        <v>18.54852991845939</v>
+        <v>18.13316965856438</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>-2.282410605232128</v>
       </c>
       <c r="D10" t="n">
-        <v>16.32277213327426</v>
+        <v>19.79729335386568</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-2.772362007079088</v>
       </c>
       <c r="D11" t="n">
-        <v>16.3484464092294</v>
+        <v>17.26776370363731</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-3.88329034913005</v>
       </c>
       <c r="D12" t="n">
-        <v>16.69967331421831</v>
+        <v>16.04168001732169</v>
       </c>
       <c r="E12" t="n">
         <v>12</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-5.60716415658826</v>
       </c>
       <c r="D13" t="n">
-        <v>14.21574283395351</v>
+        <v>13.42539346975088</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-7.141628378197744</v>
       </c>
       <c r="D14" t="n">
-        <v>12.53581313892984</v>
+        <v>12.86671847447147</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-7.609579707719925</v>
       </c>
       <c r="D15" t="n">
-        <v>11.95320626735191</v>
+        <v>11.93879024830099</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-6.863798099339678</v>
       </c>
       <c r="D16" t="n">
-        <v>12.06112860386476</v>
+        <v>13.54692531925531</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>-5.61905640201334</v>
       </c>
       <c r="D17" t="n">
-        <v>13.86289684374553</v>
+        <v>14.71414718666977</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>-4.911453261500645</v>
       </c>
       <c r="D18" t="n">
-        <v>12.9066317939971</v>
+        <v>14.0964329861059</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>-5.416539393440468</v>
       </c>
       <c r="D19" t="n">
-        <v>12.77229306385285</v>
+        <v>15.85965805193912</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>-7.064456717940123</v>
       </c>
       <c r="D20" t="n">
-        <v>11.56236344419037</v>
+        <v>12.6588921707107</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-9.079916906856353</v>
       </c>
       <c r="D21" t="n">
-        <v>11.1449150809604</v>
+        <v>10.20725503509576</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B760I AORUS PRO DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>113</t>
         </is>
       </c>
     </row>
